--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/F2-Itga2b.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/F2-Itga2b.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H2">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I2">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J2">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>0.6399373333333334</v>
+        <v>1.016533333333333</v>
       </c>
       <c r="N2">
-        <v>1.919812</v>
+        <v>3.0496</v>
       </c>
       <c r="O2">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="P2">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="Q2">
-        <v>0.2646219798937778</v>
+        <v>0.7255276252444445</v>
       </c>
       <c r="R2">
-        <v>2.381597819044</v>
+        <v>6.5297486272</v>
       </c>
       <c r="S2">
-        <v>0.0215304671137919</v>
+        <v>0.06095057682010847</v>
       </c>
       <c r="T2">
-        <v>0.0215304671137919</v>
+        <v>0.06095057682010847</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H3">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I3">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J3">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.174390000000001</v>
       </c>
       <c r="O3">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="P3">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="Q3">
-        <v>0.9888995830477781</v>
+        <v>1.706852747664445</v>
       </c>
       <c r="R3">
-        <v>8.900096247430003</v>
+        <v>15.36167472898</v>
       </c>
       <c r="S3">
-        <v>0.08045994501363543</v>
+        <v>0.1433903491711759</v>
       </c>
       <c r="T3">
-        <v>0.08045994501363543</v>
+        <v>0.1433903491711759</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H4">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I4">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J4">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.4216996666666666</v>
+        <v>0.4753093333333333</v>
       </c>
       <c r="N4">
-        <v>1.265099</v>
+        <v>1.425928</v>
       </c>
       <c r="O4">
-        <v>0.06688933166924994</v>
+        <v>0.08205150159815738</v>
       </c>
       <c r="P4">
-        <v>0.06688933166924994</v>
+        <v>0.0820515015981574</v>
       </c>
       <c r="Q4">
-        <v>0.1743780131292222</v>
+        <v>0.3392412629884444</v>
       </c>
       <c r="R4">
-        <v>1.569402118163</v>
+        <v>3.053171366896</v>
       </c>
       <c r="S4">
-        <v>0.01418793736844598</v>
+        <v>0.02849919140344426</v>
       </c>
       <c r="T4">
-        <v>0.01418793736844598</v>
+        <v>0.02849919140344426</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H5">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I5">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J5">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.694659333333333</v>
+        <v>0.355965</v>
       </c>
       <c r="N5">
-        <v>5.083978</v>
+        <v>1.067895</v>
       </c>
       <c r="O5">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798137</v>
       </c>
       <c r="P5">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798138</v>
       </c>
       <c r="Q5">
-        <v>0.7007625351317779</v>
+        <v>0.2540619502100001</v>
       </c>
       <c r="R5">
-        <v>6.306862816186001</v>
+        <v>2.28655755189</v>
       </c>
       <c r="S5">
-        <v>0.05701621884655451</v>
+        <v>0.02134339462005172</v>
       </c>
       <c r="T5">
-        <v>0.05701621884655451</v>
+        <v>0.02134339462005173</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H6">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I6">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J6">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.8474593333333335</v>
+        <v>1.21563</v>
       </c>
       <c r="N6">
-        <v>2.542378</v>
+        <v>3.64689</v>
       </c>
       <c r="O6">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="P6">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="Q6">
-        <v>0.3504348863317779</v>
+        <v>0.8676283582200001</v>
       </c>
       <c r="R6">
-        <v>3.153913976986001</v>
+        <v>7.808655223980001</v>
       </c>
       <c r="S6">
-        <v>0.02851247201279502</v>
+        <v>0.07288826373933807</v>
       </c>
       <c r="T6">
-        <v>0.02851247201279502</v>
+        <v>0.07288826373933807</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,46 +853,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.4135123333333334</v>
+        <v>0.7137273333333334</v>
       </c>
       <c r="H7">
-        <v>1.240537</v>
+        <v>2.141182</v>
       </c>
       <c r="I7">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="J7">
-        <v>0.212110616362585</v>
+        <v>0.3473329658610935</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>0.3092193333333333</v>
+        <v>0.3379159999999999</v>
       </c>
       <c r="N7">
-        <v>0.927658</v>
+        <v>1.013748</v>
       </c>
       <c r="O7">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453557</v>
       </c>
       <c r="P7">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453559</v>
       </c>
       <c r="Q7">
-        <v>0.1278660080384445</v>
+        <v>0.2411798855706666</v>
       </c>
       <c r="R7">
-        <v>1.150794072346</v>
+        <v>2.170618970136</v>
       </c>
       <c r="S7">
-        <v>0.01040357600736216</v>
+        <v>0.02026119010697511</v>
       </c>
       <c r="T7">
-        <v>0.01040357600736216</v>
+        <v>0.02026119010697512</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1.811317</v>
       </c>
       <c r="I8">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J8">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.6399373333333334</v>
+        <v>1.016533333333333</v>
       </c>
       <c r="N8">
-        <v>1.919812</v>
+        <v>3.0496</v>
       </c>
       <c r="O8">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="P8">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="Q8">
-        <v>0.3863764569337778</v>
+        <v>0.6137547025777778</v>
       </c>
       <c r="R8">
-        <v>3.477388112404</v>
+        <v>5.5237923232</v>
       </c>
       <c r="S8">
-        <v>0.03143678995560165</v>
+        <v>0.05156068748666316</v>
       </c>
       <c r="T8">
-        <v>0.03143678995560165</v>
+        <v>0.05156068748666317</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1.811317</v>
       </c>
       <c r="I9">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J9">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>7.174390000000001</v>
       </c>
       <c r="O9">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="P9">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="Q9">
         <v>1.443899396847778</v>
@@ -1013,10 +1013,10 @@
         <v>12.99509457163</v>
       </c>
       <c r="S9">
-        <v>0.1174801446649822</v>
+        <v>0.1213000002286993</v>
       </c>
       <c r="T9">
-        <v>0.1174801446649822</v>
+        <v>0.1213000002286993</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1.811317</v>
       </c>
       <c r="I10">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J10">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.4216996666666666</v>
+        <v>0.4753093333333333</v>
       </c>
       <c r="N10">
-        <v>1.265099</v>
+        <v>1.425928</v>
       </c>
       <c r="O10">
-        <v>0.06688933166924994</v>
+        <v>0.08205150159815738</v>
       </c>
       <c r="P10">
-        <v>0.06688933166924994</v>
+        <v>0.0820515015981574</v>
       </c>
       <c r="Q10">
-        <v>0.2546105917092222</v>
+        <v>0.2869786252417778</v>
       </c>
       <c r="R10">
-        <v>2.291495325383</v>
+        <v>2.582807627176</v>
       </c>
       <c r="S10">
-        <v>0.02071590944115449</v>
+        <v>0.02410867916660632</v>
       </c>
       <c r="T10">
-        <v>0.02071590944115449</v>
+        <v>0.02410867916660632</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1.811317</v>
       </c>
       <c r="I11">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J11">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>1.694659333333333</v>
+        <v>0.355965</v>
       </c>
       <c r="N11">
-        <v>5.083978</v>
+        <v>1.067895</v>
       </c>
       <c r="O11">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798137</v>
       </c>
       <c r="P11">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798138</v>
       </c>
       <c r="Q11">
-        <v>1.023188419891778</v>
+        <v>0.214921818635</v>
       </c>
       <c r="R11">
-        <v>9.208695779026</v>
+        <v>1.934296367715</v>
       </c>
       <c r="S11">
-        <v>0.08324979139879307</v>
+        <v>0.01805528605835853</v>
       </c>
       <c r="T11">
-        <v>0.08324979139879307</v>
+        <v>0.01805528605835853</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1.811317</v>
       </c>
       <c r="I12">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J12">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.8474593333333335</v>
+        <v>1.21563</v>
       </c>
       <c r="N12">
-        <v>2.542378</v>
+        <v>3.64689</v>
       </c>
       <c r="O12">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="P12">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="Q12">
-        <v>0.5116724990917779</v>
+        <v>0.73396376157</v>
       </c>
       <c r="R12">
-        <v>4.605052491826001</v>
+        <v>6.60567385413</v>
       </c>
       <c r="S12">
-        <v>0.04163126554774249</v>
+        <v>0.06165928501712914</v>
       </c>
       <c r="T12">
-        <v>0.04163126554774249</v>
+        <v>0.06165928501712915</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,40 +1231,40 @@
         <v>1.811317</v>
       </c>
       <c r="I13">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="J13">
-        <v>0.3097042371956889</v>
+        <v>0.2938237411507374</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.3092193333333333</v>
+        <v>0.3379159999999999</v>
       </c>
       <c r="N13">
-        <v>0.927658</v>
+        <v>1.013748</v>
       </c>
       <c r="O13">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453557</v>
       </c>
       <c r="P13">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453559</v>
       </c>
       <c r="Q13">
-        <v>0.1866980783984445</v>
+        <v>0.2040243317906666</v>
       </c>
       <c r="R13">
-        <v>1.680282705586</v>
+        <v>1.836218986116</v>
       </c>
       <c r="S13">
-        <v>0.01519033618741497</v>
+        <v>0.01713980319328102</v>
       </c>
       <c r="T13">
-        <v>0.01519033618741497</v>
+        <v>0.01713980319328102</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,22 +1281,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G14">
-        <v>0.3011906666666667</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H14">
-        <v>0.903572</v>
+        <v>0.279021</v>
       </c>
       <c r="I14">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J14">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.6399373333333334</v>
+        <v>1.016533333333333</v>
       </c>
       <c r="N14">
-        <v>1.919812</v>
+        <v>3.0496</v>
       </c>
       <c r="O14">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="P14">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="Q14">
-        <v>0.1927431520515556</v>
+        <v>0.09454471573333334</v>
       </c>
       <c r="R14">
-        <v>1.734688368464</v>
+        <v>0.8509024416000001</v>
       </c>
       <c r="S14">
-        <v>0.01568218217670507</v>
+        <v>0.007942571390439246</v>
       </c>
       <c r="T14">
-        <v>0.01568218217670507</v>
+        <v>0.007942571390439246</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,22 +1343,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G15">
-        <v>0.3011906666666667</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H15">
-        <v>0.903572</v>
+        <v>0.279021</v>
       </c>
       <c r="I15">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J15">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.174390000000001</v>
       </c>
       <c r="O15">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="P15">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="Q15">
-        <v>0.7202864356755556</v>
+        <v>0.2224228302433334</v>
       </c>
       <c r="R15">
-        <v>6.482577921080001</v>
+        <v>2.00180547219</v>
       </c>
       <c r="S15">
-        <v>0.05860474410344922</v>
+        <v>0.01868543571545561</v>
       </c>
       <c r="T15">
-        <v>0.05860474410344922</v>
+        <v>0.01868543571545561</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,22 +1405,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G16">
-        <v>0.3011906666666667</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H16">
-        <v>0.903572</v>
+        <v>0.279021</v>
       </c>
       <c r="I16">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J16">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.4216996666666666</v>
+        <v>0.4753093333333333</v>
       </c>
       <c r="N16">
-        <v>1.265099</v>
+        <v>1.425928</v>
       </c>
       <c r="O16">
-        <v>0.06688933166924994</v>
+        <v>0.08205150159815738</v>
       </c>
       <c r="P16">
-        <v>0.06688933166924994</v>
+        <v>0.0820515015981574</v>
       </c>
       <c r="Q16">
-        <v>0.1270120037364444</v>
+        <v>0.04420709516533333</v>
       </c>
       <c r="R16">
-        <v>1.143108033628</v>
+        <v>0.397863856488</v>
       </c>
       <c r="S16">
-        <v>0.01033409156186512</v>
+        <v>0.003713777196231064</v>
       </c>
       <c r="T16">
-        <v>0.01033409156186512</v>
+        <v>0.003713777196231064</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,22 +1467,22 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F17">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G17">
-        <v>0.3011906666666667</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H17">
-        <v>0.903572</v>
+        <v>0.279021</v>
       </c>
       <c r="I17">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J17">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>1.694659333333333</v>
+        <v>0.355965</v>
       </c>
       <c r="N17">
-        <v>5.083978</v>
+        <v>1.067895</v>
       </c>
       <c r="O17">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798137</v>
       </c>
       <c r="P17">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798138</v>
       </c>
       <c r="Q17">
-        <v>0.5104155743795555</v>
+        <v>0.03310723675500001</v>
       </c>
       <c r="R17">
-        <v>4.593740169416001</v>
+        <v>0.297965130795</v>
       </c>
       <c r="S17">
-        <v>0.04152899824480764</v>
+        <v>0.002781293374538667</v>
       </c>
       <c r="T17">
-        <v>0.04152899824480764</v>
+        <v>0.002781293374538667</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,22 +1529,22 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G18">
-        <v>0.3011906666666667</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H18">
-        <v>0.903572</v>
+        <v>0.279021</v>
       </c>
       <c r="I18">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J18">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>0.8474593333333335</v>
+        <v>1.21563</v>
       </c>
       <c r="N18">
-        <v>2.542378</v>
+        <v>3.64689</v>
       </c>
       <c r="O18">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="P18">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="Q18">
-        <v>0.2552468415795556</v>
+        <v>0.11306209941</v>
       </c>
       <c r="R18">
-        <v>2.297221574216</v>
+        <v>1.01755889469</v>
       </c>
       <c r="S18">
-        <v>0.02076767670899394</v>
+        <v>0.009498191296589383</v>
       </c>
       <c r="T18">
-        <v>0.02076767670899394</v>
+        <v>0.009498191296589383</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F19">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G19">
-        <v>0.3011906666666667</v>
+        <v>0.09300700000000001</v>
       </c>
       <c r="H19">
-        <v>0.903572</v>
+        <v>0.279021</v>
       </c>
       <c r="I19">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152096</v>
       </c>
       <c r="J19">
-        <v>0.1544953627727134</v>
+        <v>0.04526153847152095</v>
       </c>
       <c r="K19">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L19">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M19">
-        <v>0.3092193333333333</v>
+        <v>0.3379159999999999</v>
       </c>
       <c r="N19">
-        <v>0.927658</v>
+        <v>1.013748</v>
       </c>
       <c r="O19">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453557</v>
       </c>
       <c r="P19">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453559</v>
       </c>
       <c r="Q19">
-        <v>0.09313397715288889</v>
+        <v>0.03142855341199999</v>
       </c>
       <c r="R19">
-        <v>0.8382057943760001</v>
+        <v>0.282856980708</v>
       </c>
       <c r="S19">
-        <v>0.00757766997689246</v>
+        <v>0.002640269498266987</v>
       </c>
       <c r="T19">
-        <v>0.00757766997689246</v>
+        <v>0.002640269498266987</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.4246063333333334</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H20">
-        <v>1.273819</v>
+        <v>0.792275</v>
       </c>
       <c r="I20">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J20">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.6399373333333334</v>
+        <v>1.016533333333333</v>
       </c>
       <c r="N20">
-        <v>1.919812</v>
+        <v>3.0496</v>
       </c>
       <c r="O20">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="P20">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="Q20">
-        <v>0.2717214446697778</v>
+        <v>0.2684579822222222</v>
       </c>
       <c r="R20">
-        <v>2.445493002028</v>
+        <v>2.41612184</v>
       </c>
       <c r="S20">
-        <v>0.02210810164341997</v>
+        <v>0.02255278544754786</v>
       </c>
       <c r="T20">
-        <v>0.02210810164341997</v>
+        <v>0.02255278544754787</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.4246063333333334</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H21">
-        <v>1.273819</v>
+        <v>0.792275</v>
       </c>
       <c r="I21">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J21">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>7.174390000000001</v>
       </c>
       <c r="O21">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="P21">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="Q21">
-        <v>1.015430477267778</v>
+        <v>0.6315655374722223</v>
       </c>
       <c r="R21">
-        <v>9.138874295410002</v>
+        <v>5.68408983725</v>
       </c>
       <c r="S21">
-        <v>0.08261858106394575</v>
+        <v>0.05305695120246358</v>
       </c>
       <c r="T21">
-        <v>0.08261858106394575</v>
+        <v>0.05305695120246359</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>0.4246063333333334</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H22">
-        <v>1.273819</v>
+        <v>0.792275</v>
       </c>
       <c r="I22">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J22">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.4216996666666666</v>
+        <v>0.4753093333333333</v>
       </c>
       <c r="N22">
-        <v>1.265099</v>
+        <v>1.425928</v>
       </c>
       <c r="O22">
-        <v>0.06688933166924994</v>
+        <v>0.08205150159815738</v>
       </c>
       <c r="P22">
-        <v>0.06688933166924994</v>
+        <v>0.0820515015981574</v>
       </c>
       <c r="Q22">
-        <v>0.1790563492312222</v>
+        <v>0.1255252340222222</v>
       </c>
       <c r="R22">
-        <v>1.611507143081</v>
+        <v>1.1297271062</v>
       </c>
       <c r="S22">
-        <v>0.01456858134077137</v>
+        <v>0.0105452020749118</v>
       </c>
       <c r="T22">
-        <v>0.01456858134077137</v>
+        <v>0.0105452020749118</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>0.4246063333333334</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H23">
-        <v>1.273819</v>
+        <v>0.792275</v>
       </c>
       <c r="I23">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J23">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>1.694659333333333</v>
+        <v>0.355965</v>
       </c>
       <c r="N23">
-        <v>5.083978</v>
+        <v>1.067895</v>
       </c>
       <c r="O23">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798137</v>
       </c>
       <c r="P23">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798138</v>
       </c>
       <c r="Q23">
-        <v>0.7195630857757778</v>
+        <v>0.09400739012500001</v>
       </c>
       <c r="R23">
-        <v>6.476067771982001</v>
+        <v>0.846066511125</v>
       </c>
       <c r="S23">
-        <v>0.05854589010638071</v>
+        <v>0.007897431405925082</v>
       </c>
       <c r="T23">
-        <v>0.05854589010638071</v>
+        <v>0.007897431405925082</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>0.4246063333333334</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H24">
-        <v>1.273819</v>
+        <v>0.792275</v>
       </c>
       <c r="I24">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J24">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.8474593333333335</v>
+        <v>1.21563</v>
       </c>
       <c r="N24">
-        <v>2.542378</v>
+        <v>3.64689</v>
       </c>
       <c r="O24">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="P24">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="Q24">
-        <v>0.3598366001757778</v>
+        <v>0.32103775275</v>
       </c>
       <c r="R24">
-        <v>3.238529401582</v>
+        <v>2.88933977475</v>
       </c>
       <c r="S24">
-        <v>0.02927742468533106</v>
+        <v>0.02696993957266784</v>
       </c>
       <c r="T24">
-        <v>0.02927742468533106</v>
+        <v>0.02696993957266784</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,46 +1969,46 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>0.4246063333333334</v>
+        <v>0.2640916666666667</v>
       </c>
       <c r="H25">
-        <v>1.273819</v>
+        <v>0.792275</v>
       </c>
       <c r="I25">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="J25">
-        <v>0.2178012693086717</v>
+        <v>0.1285193064053396</v>
       </c>
       <c r="K25">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L25">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M25">
-        <v>0.3092193333333333</v>
+        <v>0.3379159999999999</v>
       </c>
       <c r="N25">
-        <v>0.927658</v>
+        <v>1.013748</v>
       </c>
       <c r="O25">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453557</v>
       </c>
       <c r="P25">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453559</v>
       </c>
       <c r="Q25">
-        <v>0.1312964873224444</v>
+        <v>0.08924079963333331</v>
       </c>
       <c r="R25">
-        <v>1.181668385902</v>
+        <v>0.8031671966999998</v>
       </c>
       <c r="S25">
-        <v>0.01068269046882282</v>
+        <v>0.007496996701823434</v>
       </c>
       <c r="T25">
-        <v>0.01068269046882282</v>
+        <v>0.007496996701823436</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.07436066666666667</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H26">
-        <v>0.223082</v>
+        <v>0.633197</v>
       </c>
       <c r="I26">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J26">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>0.6399373333333334</v>
+        <v>1.016533333333333</v>
       </c>
       <c r="N26">
-        <v>1.919812</v>
+        <v>3.0496</v>
       </c>
       <c r="O26">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="P26">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="Q26">
-        <v>0.04758616673155556</v>
+        <v>0.2145552856888889</v>
       </c>
       <c r="R26">
-        <v>0.428275500584</v>
+        <v>1.9309975712</v>
       </c>
       <c r="S26">
-        <v>0.003871758492232738</v>
+        <v>0.01802449413023378</v>
       </c>
       <c r="T26">
-        <v>0.003871758492232738</v>
+        <v>0.01802449413023378</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.07436066666666667</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H27">
-        <v>0.223082</v>
+        <v>0.633197</v>
       </c>
       <c r="I27">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J27">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>7.174390000000001</v>
       </c>
       <c r="O27">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="P27">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="Q27">
-        <v>0.1778308077755556</v>
+        <v>0.504755802758889</v>
       </c>
       <c r="R27">
-        <v>1.60047726998</v>
+        <v>4.542802224830001</v>
       </c>
       <c r="S27">
-        <v>0.01446886747717466</v>
+        <v>0.04240383999311645</v>
       </c>
       <c r="T27">
-        <v>0.01446886747717466</v>
+        <v>0.04240383999311645</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.07436066666666667</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H28">
-        <v>0.223082</v>
+        <v>0.633197</v>
       </c>
       <c r="I28">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J28">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.4216996666666666</v>
+        <v>0.4753093333333333</v>
       </c>
       <c r="N28">
-        <v>1.265099</v>
+        <v>1.425928</v>
       </c>
       <c r="O28">
-        <v>0.06688933166924994</v>
+        <v>0.08205150159815738</v>
       </c>
       <c r="P28">
-        <v>0.06688933166924994</v>
+        <v>0.0820515015981574</v>
       </c>
       <c r="Q28">
-        <v>0.03135786834644445</v>
+        <v>0.1003214813128889</v>
       </c>
       <c r="R28">
-        <v>0.282220815118</v>
+        <v>0.902893331816</v>
       </c>
       <c r="S28">
-        <v>0.002551373674487473</v>
+        <v>0.008427869512767572</v>
       </c>
       <c r="T28">
-        <v>0.002551373674487473</v>
+        <v>0.008427869512767572</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.07436066666666667</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H29">
-        <v>0.223082</v>
+        <v>0.633197</v>
       </c>
       <c r="I29">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J29">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>1.694659333333333</v>
+        <v>0.355965</v>
       </c>
       <c r="N29">
-        <v>5.083978</v>
+        <v>1.067895</v>
       </c>
       <c r="O29">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798137</v>
       </c>
       <c r="P29">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798138</v>
       </c>
       <c r="Q29">
-        <v>0.1260159977995556</v>
+        <v>0.07513199003500001</v>
       </c>
       <c r="R29">
-        <v>1.134143980196</v>
+        <v>0.676187910315</v>
       </c>
       <c r="S29">
-        <v>0.0102530534218061</v>
+        <v>0.006311735033842472</v>
       </c>
       <c r="T29">
-        <v>0.0102530534218061</v>
+        <v>0.006311735033842471</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.07436066666666667</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H30">
-        <v>0.223082</v>
+        <v>0.633197</v>
       </c>
       <c r="I30">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J30">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.8474593333333335</v>
+        <v>1.21563</v>
       </c>
       <c r="N30">
-        <v>2.542378</v>
+        <v>3.64689</v>
       </c>
       <c r="O30">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="P30">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="Q30">
-        <v>0.06301764099955556</v>
+        <v>0.25657775637</v>
       </c>
       <c r="R30">
-        <v>0.567158768996</v>
+        <v>2.30919980733</v>
       </c>
       <c r="S30">
-        <v>0.005127311222122627</v>
+        <v>0.02155474403154783</v>
       </c>
       <c r="T30">
-        <v>0.005127311222122627</v>
+        <v>0.02155474403154783</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.07436066666666667</v>
+        <v>0.2110656666666667</v>
       </c>
       <c r="H31">
-        <v>0.223082</v>
+        <v>0.633197</v>
       </c>
       <c r="I31">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511462</v>
       </c>
       <c r="J31">
-        <v>0.03814320775551086</v>
+        <v>0.1027143848511461</v>
       </c>
       <c r="K31">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L31">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M31">
-        <v>0.3092193333333333</v>
+        <v>0.3379159999999999</v>
       </c>
       <c r="N31">
-        <v>0.927658</v>
+        <v>1.013748</v>
       </c>
       <c r="O31">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453557</v>
       </c>
       <c r="P31">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453559</v>
       </c>
       <c r="Q31">
-        <v>0.02299375577288889</v>
+        <v>0.07132246581733333</v>
       </c>
       <c r="R31">
-        <v>0.206943801956</v>
+        <v>0.6419021923559999</v>
       </c>
       <c r="S31">
-        <v>0.001870843467687272</v>
+        <v>0.00599170214963806</v>
       </c>
       <c r="T31">
-        <v>0.001870843467687272</v>
+        <v>0.00599170214963806</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G32">
-        <v>0.1320703333333333</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H32">
-        <v>0.396211</v>
+        <v>0.507646</v>
       </c>
       <c r="I32">
-        <v>0.06774530660483011</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J32">
-        <v>0.06774530660483012</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K32">
         <v>3</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>0.6399373333333334</v>
+        <v>1.016533333333333</v>
       </c>
       <c r="N32">
-        <v>1.919812</v>
+        <v>3.0496</v>
       </c>
       <c r="O32">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="P32">
-        <v>0.1015058438988617</v>
+        <v>0.1754816928160053</v>
       </c>
       <c r="Q32">
-        <v>0.08451673692577777</v>
+        <v>0.1720130268444445</v>
       </c>
       <c r="R32">
-        <v>0.760650632332</v>
+        <v>1.5481172416</v>
       </c>
       <c r="S32">
-        <v>0.006876544517110412</v>
+        <v>0.01445057754101276</v>
       </c>
       <c r="T32">
-        <v>0.006876544517110413</v>
+        <v>0.01445057754101276</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G33">
-        <v>0.1320703333333333</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H33">
-        <v>0.396211</v>
+        <v>0.507646</v>
       </c>
       <c r="I33">
-        <v>0.06774530660483011</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J33">
-        <v>0.06774530660483012</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>7.174390000000001</v>
       </c>
       <c r="O33">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="P33">
-        <v>0.3793301174331417</v>
+        <v>0.4128325361103818</v>
       </c>
       <c r="Q33">
-        <v>0.3158413595877778</v>
+        <v>0.4046722651044445</v>
       </c>
       <c r="R33">
-        <v>2.84257223629</v>
+        <v>3.642050385940001</v>
       </c>
       <c r="S33">
-        <v>0.0256978351099544</v>
+        <v>0.03399595979947093</v>
       </c>
       <c r="T33">
-        <v>0.0256978351099544</v>
+        <v>0.03399595979947093</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G34">
-        <v>0.1320703333333333</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H34">
-        <v>0.396211</v>
+        <v>0.507646</v>
       </c>
       <c r="I34">
-        <v>0.06774530660483011</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J34">
-        <v>0.06774530660483012</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>0.4216996666666666</v>
+        <v>0.4753093333333333</v>
       </c>
       <c r="N34">
-        <v>1.265099</v>
+        <v>1.425928</v>
       </c>
       <c r="O34">
-        <v>0.06688933166924994</v>
+        <v>0.08205150159815738</v>
       </c>
       <c r="P34">
-        <v>0.06688933166924994</v>
+        <v>0.0820515015981574</v>
       </c>
       <c r="Q34">
-        <v>0.05569401554322221</v>
+        <v>0.08042962727644445</v>
       </c>
       <c r="R34">
-        <v>0.5012461398889999</v>
+        <v>0.7238666454879999</v>
       </c>
       <c r="S34">
-        <v>0.00453143828252551</v>
+        <v>0.006756782244196367</v>
       </c>
       <c r="T34">
-        <v>0.00453143828252551</v>
+        <v>0.006756782244196367</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G35">
-        <v>0.1320703333333333</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H35">
-        <v>0.396211</v>
+        <v>0.507646</v>
       </c>
       <c r="I35">
-        <v>0.06774530660483011</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J35">
-        <v>0.06774530660483012</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K35">
         <v>3</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>1.694659333333333</v>
+        <v>0.355965</v>
       </c>
       <c r="N35">
-        <v>5.083978</v>
+        <v>1.067895</v>
       </c>
       <c r="O35">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798137</v>
       </c>
       <c r="P35">
-        <v>0.2688041731446867</v>
+        <v>0.06144937773798138</v>
       </c>
       <c r="Q35">
-        <v>0.2238142230397777</v>
+        <v>0.06023473613000001</v>
       </c>
       <c r="R35">
-        <v>2.014328007358</v>
+        <v>0.54211262517</v>
       </c>
       <c r="S35">
-        <v>0.01821022112634464</v>
+        <v>0.005060237245264895</v>
       </c>
       <c r="T35">
-        <v>0.01821022112634464</v>
+        <v>0.005060237245264895</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G36">
-        <v>0.1320703333333333</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H36">
-        <v>0.396211</v>
+        <v>0.507646</v>
       </c>
       <c r="I36">
-        <v>0.06774530660483011</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J36">
-        <v>0.06774530660483012</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>0.8474593333333335</v>
+        <v>1.21563</v>
       </c>
       <c r="N36">
-        <v>2.542378</v>
+        <v>3.64689</v>
       </c>
       <c r="O36">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="P36">
-        <v>0.1344226540931614</v>
+        <v>0.2098512692529386</v>
       </c>
       <c r="Q36">
-        <v>0.1119242366397778</v>
+        <v>0.20570323566</v>
       </c>
       <c r="R36">
-        <v>1.007318129758</v>
+        <v>1.85132912094</v>
       </c>
       <c r="S36">
-        <v>0.009106503916176237</v>
+        <v>0.01728084559566632</v>
       </c>
       <c r="T36">
-        <v>0.009106503916176239</v>
+        <v>0.01728084559566632</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,46 +2713,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G37">
-        <v>0.1320703333333333</v>
+        <v>0.1692153333333334</v>
       </c>
       <c r="H37">
-        <v>0.396211</v>
+        <v>0.507646</v>
       </c>
       <c r="I37">
-        <v>0.06774530660483011</v>
+        <v>0.08234806326016224</v>
       </c>
       <c r="J37">
-        <v>0.06774530660483012</v>
+        <v>0.08234806326016222</v>
       </c>
       <c r="K37">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L37">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M37">
-        <v>0.3092193333333333</v>
+        <v>0.3379159999999999</v>
       </c>
       <c r="N37">
-        <v>0.927658</v>
+        <v>1.013748</v>
       </c>
       <c r="O37">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453557</v>
       </c>
       <c r="P37">
-        <v>0.0490478797608986</v>
+        <v>0.05833362248453559</v>
       </c>
       <c r="Q37">
-        <v>0.04083870042644444</v>
+        <v>0.05718056857866666</v>
       </c>
       <c r="R37">
-        <v>0.367548303838</v>
+        <v>0.514625117208</v>
       </c>
       <c r="S37">
-        <v>0.003322763652718917</v>
+        <v>0.004803660834550957</v>
       </c>
       <c r="T37">
-        <v>0.003322763652718918</v>
+        <v>0.004803660834550958</v>
       </c>
     </row>
   </sheetData>
